--- a/source/xzs/成绩报表.xlsx
+++ b/source/xzs/成绩报表.xlsx
@@ -53,7 +53,7 @@
     <t>全部题型Allmax</t>
   </si>
   <si>
-    <t>2024-10-17 17:21:38.0</t>
+    <t>2024-11-19 19:11:09.0</t>
   </si>
   <si>
     <t>长春理工大学</t>
@@ -254,13 +254,13 @@
         <v>140.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>13</v>
